--- a/1.7/left.xlsx
+++ b/1.7/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>iXimJo6opBw</t>
+  </si>
+  <si>
+    <t>SIMILAR TRIANGLES!</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +683,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A35" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
+        <f t="shared" ref="A3:A36" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='1.7_1_1.html' class='indent'&gt;</v>
       </c>
       <c r="B3" t="s">
@@ -702,7 +705,7 @@
         <v>1_1</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H35" si="2">"1.7_"&amp;G3</f>
+        <f t="shared" ref="H3:H36" si="2">"1.7_"&amp;G3</f>
         <v>1.7_1_1</v>
       </c>
       <c r="I3" t="str">
@@ -720,7 +723,7 @@
         <v>47</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:Y5" si="5">O3</f>
+        <f t="shared" ref="P3:Y3" si="5">O3</f>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="Q3" t="str">
@@ -1285,15 +1288,15 @@
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11:E35" si="18">LEFT(B11,FIND(":",B11)-1)</f>
+        <f t="shared" ref="E11:E36" si="18">LEFT(B11,FIND(":",B11)-1)</f>
         <v>Part 2.5</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ref="F11:F35" si="19">RIGHT(E11,LEN(E11)-FIND(" ",E11))</f>
+        <f t="shared" ref="F11:F36" si="19">RIGHT(E11,LEN(E11)-FIND(" ",E11))</f>
         <v>2.5</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G35" si="20">SUBSTITUTE(F11,".","_")</f>
+        <f t="shared" ref="G11:G36" si="20">SUBSTITUTE(F11,".","_")</f>
         <v>2_5</v>
       </c>
       <c r="H11" t="str">
@@ -1301,7 +1304,7 @@
         <v>1.7_2_5</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ref="I11:I35" si="21">IF(ISNUMBER(SEARCH("_",G11))," class='indent'","")</f>
+        <f t="shared" ref="I11:I36" si="21">IF(ISNUMBER(SEARCH("_",G11))," class='indent'","")</f>
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N11" s="2" t="str">
@@ -3016,6 +3019,35 @@
       <c r="Y35" t="str">
         <f t="shared" si="17"/>
         <v>trigpythag7bmixed</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="21"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/1.7/left.xlsx
+++ b/1.7/left.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\1.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/1.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -266,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,9 +381,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -410,9 +416,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -594,17 +600,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='1.7_1.html'&gt;</v>
@@ -681,7 +687,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A36" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='1.7_1_1.html' class='indent'&gt;</v>
@@ -716,54 +722,54 @@
         <v>75</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N35" si="4">"http://students.mathsnz.com/qg/onscreen.html#"&amp;O3&amp;","&amp;P3&amp;","&amp;Q3&amp;","&amp;R3&amp;","&amp;S3&amp;","&amp;T3&amp;","&amp;U3&amp;","&amp;V3&amp;","&amp;W3&amp;","&amp;X3&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O3&amp;","&amp;P3&amp;","&amp;Q3&amp;","&amp;R3&amp;","&amp;S3&amp;","&amp;T3&amp;","&amp;U3&amp;","&amp;V3&amp;","&amp;W3&amp;","&amp;X3&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,trigpythag1afindhy,</v>
       </c>
       <c r="O3" t="s">
         <v>47</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:Y3" si="5">O3</f>
+        <f t="shared" ref="P3:Y3" si="4">O3</f>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="X3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>trigpythag1afindhy</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_1_2.html' class='indent'&gt;</v>
@@ -775,11 +781,11 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E10" si="6">LEFT(B4,FIND(":",B4)-1)</f>
+        <f t="shared" ref="E4:E10" si="5">LEFT(B4,FIND(":",B4)-1)</f>
         <v>Part 1.2</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F10" si="7">RIGHT(E4,LEN(E4)-FIND(" ",E4))</f>
+        <f t="shared" ref="F4:F10" si="6">RIGHT(E4,LEN(E4)-FIND(" ",E4))</f>
         <v>1.2</v>
       </c>
       <c r="G4" t="str">
@@ -798,8 +804,8 @@
         <v>76</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,</v>
+        <f t="shared" ref="N4:N35" si="7">"https://students.mathsnz.com/qg/onscreen.html#"&amp;O4&amp;","&amp;P4&amp;","&amp;Q4&amp;","&amp;R4&amp;","&amp;S4&amp;","&amp;T4&amp;","&amp;U4&amp;","&amp;V4&amp;","&amp;W4&amp;","&amp;X4&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,trigpythag1bfindside,</v>
       </c>
       <c r="O4" t="s">
         <v>48</v>
@@ -845,7 +851,7 @@
         <v>trigpythag1bfindside</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_1_3.html' class='indent'&gt;</v>
@@ -857,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 1.3</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="6"/>
-        <v>Part 1.3</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
       <c r="G5" t="str">
@@ -880,8 +886,8 @@
         <v>77</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,trigpythag1cfindmixed,</v>
       </c>
       <c r="O5" t="s">
         <v>49</v>
@@ -927,7 +933,7 @@
         <v>trigpythag1cfindmixed</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_2.html'&gt;</v>
@@ -939,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="E6" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 2</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="6"/>
-        <v>Part 2</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G6" t="str">
@@ -960,7 +966,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_2_1.html' class='indent'&gt;</v>
@@ -972,11 +978,11 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 2.1</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="6"/>
-        <v>Part 2.1</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
       <c r="G7" t="str">
@@ -992,8 +998,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,trigpythag2asinfindop,</v>
       </c>
       <c r="O7" t="s">
         <v>50</v>
@@ -1039,7 +1045,7 @@
         <v>trigpythag2asinfindop</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_2_2.html' class='indent'&gt;</v>
@@ -1051,11 +1057,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 2.2</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="6"/>
-        <v>Part 2.2</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="7"/>
         <v>2.2</v>
       </c>
       <c r="G8" t="str">
@@ -1071,8 +1077,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,trigpythag2bsinfindhy,</v>
       </c>
       <c r="O8" t="s">
         <v>51</v>
@@ -1118,7 +1124,7 @@
         <v>trigpythag2bsinfindhy</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_2_3.html' class='indent'&gt;</v>
@@ -1130,11 +1136,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 2.3</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="6"/>
-        <v>Part 2.3</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="7"/>
         <v>2.3</v>
       </c>
       <c r="G9" t="str">
@@ -1150,8 +1156,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,trigpythag2csinfindside,</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -1197,7 +1203,7 @@
         <v>trigpythag2csinfindside</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_2_4.html' class='indent'&gt;</v>
@@ -1209,11 +1215,11 @@
         <v>0</v>
       </c>
       <c r="E10" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 2.4</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="6"/>
-        <v>Part 2.4</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="7"/>
         <v>2.4</v>
       </c>
       <c r="G10" t="str">
@@ -1229,8 +1235,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,trigpythag2dsinfindang,</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
@@ -1276,7 +1282,7 @@
         <v>trigpythag2dsinfindang</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_2_5.html' class='indent'&gt;</v>
@@ -1308,8 +1314,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,trigpythag2esinfindmixed,</v>
       </c>
       <c r="O11" t="s">
         <v>54</v>
@@ -1355,7 +1361,7 @@
         <v>trigpythag2esinfindmixed</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_3.html'&gt;</v>
@@ -1388,7 +1394,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_3_1.html' class='indent'&gt;</v>
@@ -1420,8 +1426,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,trigpythag3acosfindad,</v>
       </c>
       <c r="O13" t="s">
         <v>55</v>
@@ -1467,7 +1473,7 @@
         <v>trigpythag3acosfindad</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_3_2.html' class='indent'&gt;</v>
@@ -1499,8 +1505,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,trigpythag3bcosfindhy,</v>
       </c>
       <c r="O14" t="s">
         <v>56</v>
@@ -1546,7 +1552,7 @@
         <v>trigpythag3bcosfindhy</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_3_3.html' class='indent'&gt;</v>
@@ -1578,8 +1584,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,trigpythag3ccosfindside,</v>
       </c>
       <c r="O15" t="s">
         <v>57</v>
@@ -1625,7 +1631,7 @@
         <v>trigpythag3ccosfindside</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_3_4.html' class='indent'&gt;</v>
@@ -1657,8 +1663,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,trigpythag3dcosfindang,</v>
       </c>
       <c r="O16" t="s">
         <v>58</v>
@@ -1704,7 +1710,7 @@
         <v>trigpythag3dcosfindang</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_3_5.html' class='indent'&gt;</v>
@@ -1736,8 +1742,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,trigpythag3ecosfindmixed,</v>
       </c>
       <c r="O17" t="s">
         <v>59</v>
@@ -1783,7 +1789,7 @@
         <v>trigpythag3ecosfindmixed</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_4.html'&gt;</v>
@@ -1816,7 +1822,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_4_1.html' class='indent'&gt;</v>
@@ -1848,8 +1854,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,trigpythag4asincos,</v>
       </c>
       <c r="O19" t="s">
         <v>60</v>
@@ -1895,7 +1901,7 @@
         <v>trigpythag4asincos</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_4_2.html' class='indent'&gt;</v>
@@ -1927,8 +1933,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,trigpythag4bsincos,</v>
       </c>
       <c r="O20" t="s">
         <v>61</v>
@@ -1974,7 +1980,7 @@
         <v>trigpythag4bsincos</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_4_3.html' class='indent'&gt;</v>
@@ -2006,8 +2012,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,trigpythag4csincos,</v>
       </c>
       <c r="O21" t="s">
         <v>62</v>
@@ -2053,7 +2059,7 @@
         <v>trigpythag4csincos</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_4_4.html' class='indent'&gt;</v>
@@ -2085,8 +2091,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,trigpythag4dsincos,</v>
       </c>
       <c r="O22" t="s">
         <v>63</v>
@@ -2132,7 +2138,7 @@
         <v>trigpythag4dsincos</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_5.html'&gt;</v>
@@ -2165,7 +2171,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_5_1.html' class='indent'&gt;</v>
@@ -2197,8 +2203,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,trigpythag5atanfindop,</v>
       </c>
       <c r="O24" t="s">
         <v>64</v>
@@ -2244,7 +2250,7 @@
         <v>trigpythag5atanfindop</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_5_2.html' class='indent'&gt;</v>
@@ -2276,8 +2282,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,trigpythag5btanfindad,</v>
       </c>
       <c r="O25" t="s">
         <v>65</v>
@@ -2323,7 +2329,7 @@
         <v>trigpythag5btanfindad</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_5_3.html' class='indent'&gt;</v>
@@ -2355,8 +2361,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,trigpythag5ctanfindside,</v>
       </c>
       <c r="O26" t="s">
         <v>66</v>
@@ -2402,7 +2408,7 @@
         <v>trigpythag5ctanfindside</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_5_4.html' class='indent'&gt;</v>
@@ -2434,8 +2440,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,trigpythag5dtanfindang,</v>
       </c>
       <c r="O27" t="s">
         <v>67</v>
@@ -2481,7 +2487,7 @@
         <v>trigpythag5dtanfindang</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_5_5.html' class='indent'&gt;</v>
@@ -2513,8 +2519,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,trigpythag5etanfindmixed,</v>
       </c>
       <c r="O28" t="s">
         <v>68</v>
@@ -2560,7 +2566,7 @@
         <v>trigpythag5etanfindmixed</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_6.html'&gt;</v>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_6_1.html' class='indent'&gt;</v>
@@ -2625,8 +2631,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,trigpythag6asincostan,</v>
       </c>
       <c r="O30" t="s">
         <v>69</v>
@@ -2672,7 +2678,7 @@
         <v>trigpythag6asincostan</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_6_2.html' class='indent'&gt;</v>
@@ -2704,8 +2710,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N31" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,trigpythag6bsincostan,</v>
       </c>
       <c r="O31" t="s">
         <v>70</v>
@@ -2751,7 +2757,7 @@
         <v>trigpythag6bsincostan</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_6_3.html' class='indent'&gt;</v>
@@ -2783,8 +2789,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,trigpythag6csincostan,</v>
       </c>
       <c r="O32" t="s">
         <v>71</v>
@@ -2830,7 +2836,7 @@
         <v>trigpythag6csincostan</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_7.html'&gt;</v>
@@ -2863,7 +2869,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_7_1.html' class='indent'&gt;</v>
@@ -2895,8 +2901,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,trigpythag7amixed,</v>
       </c>
       <c r="O34" t="s">
         <v>72</v>
@@ -2942,7 +2948,7 @@
         <v>trigpythag7amixed</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.7_7_2.html' class='indent'&gt;</v>
@@ -2974,8 +2980,8 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,trigpythag7bmixed,</v>
       </c>
       <c r="O35" t="s">
         <v>73</v>
@@ -3021,7 +3027,7 @@
         <v>trigpythag7bmixed</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
